--- a/lab4/Таблица 1.xlsx
+++ b/lab4/Таблица 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronya\OneDrive - ITMO UNIVERSITY\ОПД\4 лаба\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronya\Fundamentals-of-Professional-Activity\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DAAB3-12A7-4E12-A64F-4E48325D17C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC1A4EB-B202-4C51-A581-24B45EFE14E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="780" windowWidth="15456" windowHeight="10680" xr2:uid="{44E4884D-C411-4EAE-9938-9462AE5CA1E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" xr2:uid="{44E4884D-C411-4EAE-9938-9462AE5CA1E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="184">
   <si>
     <t>Адрес</t>
   </si>
@@ -534,6 +534,60 @@
   </si>
   <si>
     <t>RES = f(z) - f(x-1) + f(y-1) - 1</t>
+  </si>
+  <si>
+    <t>START: CLA</t>
+  </si>
+  <si>
+    <t>CALL $FUNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNC: </t>
+  </si>
+  <si>
+    <t>ORG 0x444</t>
+  </si>
+  <si>
+    <t>ORG 0x222</t>
+  </si>
+  <si>
+    <t>ADDR: WORD $A</t>
+  </si>
+  <si>
+    <t>LD B</t>
+  </si>
+  <si>
+    <t>LD ADDR</t>
+  </si>
+  <si>
+    <t>RES: WORD 0x777</t>
+  </si>
+  <si>
+    <t>B: WORD 0x7</t>
+  </si>
+  <si>
+    <t>A:  WORD 0x3</t>
+  </si>
+  <si>
+    <t>X: WORD 0x5</t>
+  </si>
+  <si>
+    <t>ST TMP</t>
+  </si>
+  <si>
+    <t>ADD (TMP)</t>
+  </si>
+  <si>
+    <t>SUB &amp;1</t>
+  </si>
+  <si>
+    <t>TMP: WORD 0x1234</t>
+  </si>
+  <si>
+    <t>22E</t>
+  </si>
+  <si>
+    <t>44A</t>
   </si>
 </sst>
 </file>
@@ -717,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -782,6 +836,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -790,6 +865,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -805,45 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF347C0-2F23-4397-A659-951F18E81751}">
-  <dimension ref="B2:AK98"/>
+  <dimension ref="B2:AK147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="116" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1271,36 +1313,36 @@
       <c r="E15" s="21"/>
     </row>
     <row r="17" spans="12:37" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="37" t="s">
+      <c r="L17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37" t="s">
+      <c r="M17" s="27"/>
+      <c r="N17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="38" t="s">
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="38"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
+      <c r="W17" s="28"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
     </row>
     <row r="18" spans="12:37" x14ac:dyDescent="0.3">
       <c r="L18" s="16" t="s">
@@ -1353,38 +1395,38 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L19" s="43">
+      <c r="L19" s="2">
         <v>509</v>
       </c>
-      <c r="M19" s="43">
+      <c r="M19" s="2">
         <v>200</v>
       </c>
-      <c r="N19" s="43" t="s">
+      <c r="N19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="2">
         <v>200</v>
       </c>
-      <c r="P19" s="43">
+      <c r="P19" s="2">
         <v>509</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="Q19" s="2">
         <v>200</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="2">
         <v>509</v>
       </c>
-      <c r="T19" s="43">
+      <c r="T19" s="2">
         <v>0</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="U19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="2"/>
@@ -1399,40 +1441,40 @@
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="M20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="43" t="s">
+      <c r="N20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O20" s="43" t="s">
+      <c r="O20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="43">
+      <c r="P20" s="2">
         <v>526</v>
       </c>
-      <c r="Q20" s="43">
+      <c r="Q20" s="2">
         <v>0</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="43" t="s">
+      <c r="S20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T20" s="43">
+      <c r="T20" s="2">
         <v>0</v>
       </c>
-      <c r="U20" s="44" t="s">
+      <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V20" s="43">
+      <c r="V20" s="2">
         <v>526</v>
       </c>
-      <c r="W20" s="43">
+      <c r="W20" s="2">
         <v>0</v>
       </c>
       <c r="Z20" s="2"/>
@@ -1449,38 +1491,38 @@
       <c r="AK20" s="2"/>
     </row>
     <row r="21" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L21" s="43" t="s">
+      <c r="L21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="43" t="s">
+      <c r="N21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="43" t="s">
+      <c r="O21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="2">
         <v>524</v>
       </c>
-      <c r="Q21" s="43" t="s">
+      <c r="Q21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="44" t="s">
+      <c r="S21" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T21" s="43" t="s">
+      <c r="T21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="2">
         <v>1000</v>
       </c>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -1495,38 +1537,38 @@
       <c r="AK21" s="2"/>
     </row>
     <row r="22" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L22" s="43" t="s">
+      <c r="L22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="2">
         <v>740</v>
       </c>
-      <c r="N22" s="43" t="s">
+      <c r="N22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="2">
         <v>740</v>
       </c>
-      <c r="P22" s="43" t="s">
+      <c r="P22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="2">
         <v>740</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="S22" s="43" t="s">
+      <c r="S22" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="T22" s="43" t="s">
+      <c r="T22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U22" s="43">
+      <c r="U22" s="2">
         <v>1001</v>
       </c>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="3"/>
       <c r="AB22" s="2"/>
@@ -1541,40 +1583,40 @@
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N23" s="43" t="s">
+      <c r="N23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O23" s="43" t="s">
+      <c r="O23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P23" s="43" t="s">
+      <c r="P23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q23" s="43" t="s">
+      <c r="Q23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R23" s="43" t="s">
+      <c r="R23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S23" s="43" t="s">
+      <c r="S23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T23" s="43" t="s">
+      <c r="T23" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="2">
         <v>1001</v>
       </c>
-      <c r="V23" s="43" t="s">
+      <c r="V23" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W23" s="43" t="s">
+      <c r="W23" s="2" t="s">
         <v>125</v>
       </c>
       <c r="Z23" s="2"/>
@@ -1591,40 +1633,40 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="43" t="s">
+      <c r="M24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N24" s="44" t="s">
+      <c r="N24" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O24" s="43" t="s">
+      <c r="O24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P24" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="43" t="s">
+      <c r="P24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R24" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S24" s="43" t="s">
+      <c r="R24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T24" s="43" t="s">
+      <c r="T24" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U24" s="43">
+      <c r="U24" s="2">
         <v>1001</v>
       </c>
-      <c r="V24" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="W24" s="43" t="s">
+      <c r="V24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>129</v>
       </c>
       <c r="Z24" s="2"/>
@@ -1641,38 +1683,38 @@
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M25" s="43" t="s">
+      <c r="M25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N25" s="44" t="s">
+      <c r="N25" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O25" s="43" t="s">
+      <c r="O25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P25" s="43" t="s">
+      <c r="P25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q25" s="43" t="s">
+      <c r="Q25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R25" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S25" s="44" t="s">
+      <c r="R25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T25" s="43" t="s">
+      <c r="T25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="2">
         <v>1001</v>
       </c>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -1687,38 +1729,38 @@
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="12:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M26" s="43" t="s">
+      <c r="M26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N26" s="44" t="s">
+      <c r="N26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O26" s="43" t="s">
+      <c r="O26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P26" s="44" t="s">
+      <c r="P26" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q26" s="43" t="s">
+      <c r="Q26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R26" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="44" t="s">
+      <c r="R26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="T26" s="43" t="s">
+      <c r="T26" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="2">
         <v>1001</v>
       </c>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
       <c r="Z26" s="5"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="5"/>
@@ -1733,38 +1775,38 @@
       <c r="AK26" s="5"/>
     </row>
     <row r="27" spans="12:37" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="3" t="s">
         <v>152</v>
       </c>
       <c r="M27" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="N27" s="43" t="s">
+      <c r="N27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="44" t="s">
+      <c r="O27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="43" t="s">
+      <c r="P27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q27" s="43" t="s">
+      <c r="Q27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S27" s="44" t="s">
+      <c r="R27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T27" s="43" t="s">
+      <c r="T27" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U27" s="44" t="s">
+      <c r="U27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="9"/>
@@ -1779,38 +1821,38 @@
       <c r="AK27" s="9"/>
     </row>
     <row r="28" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="43" t="s">
+      <c r="M28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N28" s="43" t="s">
+      <c r="N28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="43" t="s">
+      <c r="O28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="P28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q28" s="43" t="s">
+      <c r="Q28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R28" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S28" s="43" t="s">
+      <c r="R28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T28" s="43" t="s">
+      <c r="T28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U28" s="44" t="s">
+      <c r="U28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="1"/>
@@ -1825,38 +1867,38 @@
       <c r="AK28" s="1"/>
     </row>
     <row r="29" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M29" s="43" t="s">
+      <c r="M29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="43" t="s">
+      <c r="N29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="43" t="s">
+      <c r="O29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P29" s="43" t="s">
+      <c r="P29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q29" s="43" t="s">
+      <c r="Q29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R29" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S29" s="43" t="s">
+      <c r="R29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S29" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="T29" s="43" t="s">
+      <c r="T29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="U29" s="44" t="s">
+      <c r="U29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="1"/>
@@ -1871,38 +1913,38 @@
       <c r="AK29" s="1"/>
     </row>
     <row r="30" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N30" s="43" t="s">
+      <c r="N30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O30" s="44" t="s">
+      <c r="O30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P30" s="43" t="s">
+      <c r="P30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q30" s="43" t="s">
+      <c r="Q30" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R30" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S30" s="44" t="s">
+      <c r="R30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="T30" s="43" t="s">
+      <c r="T30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="U30" s="43">
+      <c r="U30" s="2">
         <v>1000</v>
       </c>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="1"/>
@@ -1917,38 +1959,38 @@
       <c r="AK30" s="1"/>
     </row>
     <row r="31" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L31" s="43" t="s">
+      <c r="L31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M31" s="43" t="s">
+      <c r="M31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="43" t="s">
+      <c r="N31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O31" s="43" t="s">
+      <c r="O31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P31" s="43" t="s">
+      <c r="P31" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q31" s="43" t="s">
+      <c r="Q31" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="R31" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S31" s="44" t="s">
+      <c r="R31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T31" s="43" t="s">
+      <c r="T31" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="U31" s="43">
+      <c r="U31" s="2">
         <v>1001</v>
       </c>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="1"/>
@@ -1963,150 +2005,150 @@
       <c r="AK31" s="1"/>
     </row>
     <row r="32" spans="12:37" x14ac:dyDescent="0.3">
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M32" s="44" t="s">
+      <c r="M32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N32" s="43" t="s">
+      <c r="N32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="44" t="s">
+      <c r="O32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P32" s="43" t="s">
+      <c r="P32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q32" s="43" t="s">
+      <c r="Q32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R32" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S32" s="44" t="s">
+      <c r="R32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S32" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T32" s="43" t="s">
+      <c r="T32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U32" s="43">
+      <c r="U32" s="2">
         <v>1000</v>
       </c>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="L33" s="43" t="s">
+      <c r="L33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="M33" s="43" t="s">
+      <c r="M33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O33" s="43" t="s">
+      <c r="O33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="P33" s="43" t="s">
+      <c r="P33" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q33" s="43" t="s">
+      <c r="Q33" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="R33" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S33" s="44" t="s">
+      <c r="R33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T33" s="43" t="s">
+      <c r="T33" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U33" s="43">
+      <c r="U33" s="2">
         <v>1000</v>
       </c>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="L34" s="43" t="s">
+      <c r="L34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M34" s="43" t="s">
+      <c r="M34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N34" s="43" t="s">
+      <c r="N34" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O34" s="43" t="s">
+      <c r="O34" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P34" s="43" t="s">
+      <c r="P34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q34" s="43" t="s">
+      <c r="Q34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R34" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S34" s="44" t="s">
+      <c r="R34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T34" s="43" t="s">
+      <c r="T34" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U34" s="43">
+      <c r="U34" s="2">
         <v>1000</v>
       </c>
-      <c r="V34" s="43" t="s">
+      <c r="V34" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W34" s="43" t="s">
+      <c r="W34" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="31" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="L35" s="43" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="L35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M35" s="43" t="s">
+      <c r="M35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N35" s="43" t="s">
+      <c r="N35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O35" s="43" t="s">
+      <c r="O35" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P35" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q35" s="43" t="s">
+      <c r="P35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R35" s="43" t="s">
+      <c r="R35" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S35" s="43" t="s">
+      <c r="S35" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T35" s="43" t="s">
+      <c r="T35" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U35" s="43">
+      <c r="U35" s="2">
         <v>1000</v>
       </c>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
@@ -2122,38 +2164,38 @@
         <v>25</v>
       </c>
       <c r="F36" s="20"/>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="2">
         <v>800</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="2">
         <v>510</v>
       </c>
-      <c r="O36" s="43">
+      <c r="O36" s="2">
         <v>800</v>
       </c>
-      <c r="P36" s="43" t="s">
+      <c r="P36" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q36" s="43" t="s">
+      <c r="Q36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="R36" s="43">
+      <c r="R36" s="2">
         <v>0</v>
       </c>
-      <c r="S36" s="43" t="s">
+      <c r="S36" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="T36" s="43" t="s">
+      <c r="T36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="U36" s="43">
+      <c r="U36" s="2">
         <v>1000</v>
       </c>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="11">
@@ -2167,38 +2209,38 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="17"/>
-      <c r="L37" s="43">
+      <c r="L37" s="2">
         <v>510</v>
       </c>
-      <c r="M37" s="43">
+      <c r="M37" s="2">
         <v>700</v>
       </c>
-      <c r="N37" s="43">
+      <c r="N37" s="2">
         <v>511</v>
       </c>
-      <c r="O37" s="43">
+      <c r="O37" s="2">
         <v>700</v>
       </c>
-      <c r="P37" s="43">
+      <c r="P37" s="2">
         <v>510</v>
       </c>
-      <c r="Q37" s="43">
+      <c r="Q37" s="2">
         <v>700</v>
       </c>
-      <c r="R37" s="43">
+      <c r="R37" s="2">
         <v>0</v>
       </c>
-      <c r="S37" s="44" t="s">
+      <c r="S37" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="T37" s="43" t="s">
+      <c r="T37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="U37" s="43">
+      <c r="U37" s="2">
         <v>1000</v>
       </c>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
@@ -2212,38 +2254,38 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="17"/>
-      <c r="L38" s="43">
+      <c r="L38" s="2">
         <v>511</v>
       </c>
-      <c r="M38" s="44" t="s">
+      <c r="M38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N38" s="43">
+      <c r="N38" s="2">
         <v>512</v>
       </c>
-      <c r="O38" s="44" t="s">
+      <c r="O38" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="P38" s="43">
+      <c r="P38" s="2">
         <v>526</v>
       </c>
-      <c r="Q38" s="44" t="s">
+      <c r="Q38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R38" s="43">
+      <c r="R38" s="2">
         <v>0</v>
       </c>
-      <c r="S38" s="44" t="s">
+      <c r="S38" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T38" s="43" t="s">
+      <c r="T38" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="U38" s="43">
+      <c r="U38" s="2">
         <v>1000</v>
       </c>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
@@ -2255,44 +2297,44 @@
       <c r="D39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="36"/>
-      <c r="L39" s="43">
+      <c r="F39" s="26"/>
+      <c r="L39" s="2">
         <v>512</v>
       </c>
-      <c r="M39" s="43" t="s">
+      <c r="M39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="43">
+      <c r="N39" s="2">
         <v>513</v>
       </c>
-      <c r="O39" s="43" t="s">
+      <c r="O39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P39" s="43">
+      <c r="P39" s="2">
         <v>526</v>
       </c>
-      <c r="Q39" s="43" t="s">
+      <c r="Q39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R39" s="43">
+      <c r="R39" s="2">
         <v>0</v>
       </c>
-      <c r="S39" s="44" t="s">
+      <c r="S39" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="T39" s="43" t="s">
+      <c r="T39" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="U39" s="43">
+      <c r="U39" s="2">
         <v>1000</v>
       </c>
-      <c r="V39" s="43">
+      <c r="V39" s="2">
         <v>526</v>
       </c>
-      <c r="W39" s="43" t="s">
+      <c r="W39" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2306,40 +2348,40 @@
       <c r="D40" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="36"/>
-      <c r="L40" s="43">
+      <c r="E40" s="36"/>
+      <c r="F40" s="26"/>
+      <c r="L40" s="2">
         <v>513</v>
       </c>
-      <c r="M40" s="43" t="s">
+      <c r="M40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N40" s="43">
+      <c r="N40" s="2">
         <v>514</v>
       </c>
-      <c r="O40" s="43" t="s">
+      <c r="O40" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P40" s="43">
+      <c r="P40" s="2">
         <v>525</v>
       </c>
-      <c r="Q40" s="43" t="s">
+      <c r="Q40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="R40" s="43">
+      <c r="R40" s="2">
         <v>0</v>
       </c>
-      <c r="S40" s="44" t="s">
+      <c r="S40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="T40" s="43" t="s">
+      <c r="T40" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="U40" s="44" t="s">
+      <c r="U40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
@@ -2351,40 +2393,40 @@
       <c r="D41" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="36"/>
-      <c r="L41" s="43">
+      <c r="E41" s="36"/>
+      <c r="F41" s="26"/>
+      <c r="L41" s="2">
         <v>514</v>
       </c>
-      <c r="M41" s="43">
+      <c r="M41" s="2">
         <v>740</v>
       </c>
-      <c r="N41" s="43">
+      <c r="N41" s="2">
         <v>515</v>
       </c>
-      <c r="O41" s="43">
+      <c r="O41" s="2">
         <v>740</v>
       </c>
-      <c r="P41" s="43">
+      <c r="P41" s="2">
         <v>514</v>
       </c>
-      <c r="Q41" s="43">
+      <c r="Q41" s="2">
         <v>740</v>
       </c>
-      <c r="R41" s="43">
+      <c r="R41" s="2">
         <v>0</v>
       </c>
-      <c r="S41" s="44" t="s">
+      <c r="S41" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="T41" s="43" t="s">
+      <c r="T41" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U41" s="44" t="s">
+      <c r="U41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
@@ -2396,43 +2438,43 @@
       <c r="D42" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="26"/>
       <c r="G42" s="13"/>
-      <c r="L42" s="43">
+      <c r="L42" s="2">
         <v>515</v>
       </c>
-      <c r="M42" s="43" t="s">
+      <c r="M42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N42" s="43">
+      <c r="N42" s="2">
         <v>516</v>
       </c>
-      <c r="O42" s="43" t="s">
+      <c r="O42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P42" s="43" t="s">
+      <c r="P42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q42" s="43" t="s">
+      <c r="Q42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R42" s="43" t="s">
+      <c r="R42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S42" s="44" t="s">
+      <c r="S42" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="T42" s="43" t="s">
+      <c r="T42" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U42" s="44" t="s">
+      <c r="U42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V42" s="43" t="s">
+      <c r="V42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W42" s="43" t="s">
+      <c r="W42" s="2" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2446,43 +2488,43 @@
       <c r="D43" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="26"/>
       <c r="G43" s="8"/>
-      <c r="L43" s="43">
+      <c r="L43" s="2">
         <v>516</v>
       </c>
-      <c r="M43" s="43" t="s">
+      <c r="M43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N43" s="44" t="s">
+      <c r="N43" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O43" s="43" t="s">
+      <c r="O43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P43" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q43" s="43">
+      <c r="P43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q43" s="2">
         <v>517</v>
       </c>
-      <c r="R43" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S43" s="43" t="s">
+      <c r="R43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="43" t="s">
+      <c r="T43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U43" s="44" t="s">
+      <c r="U43" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V43" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="W43" s="43">
+      <c r="V43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W43" s="2">
         <v>517</v>
       </c>
     </row>
@@ -2496,41 +2538,41 @@
       <c r="D44" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="26"/>
       <c r="G44" s="8"/>
-      <c r="L44" s="44" t="s">
+      <c r="L44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M44" s="43" t="s">
+      <c r="M44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N44" s="44" t="s">
+      <c r="N44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O44" s="43" t="s">
+      <c r="O44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P44" s="43" t="s">
+      <c r="P44" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q44" s="43" t="s">
+      <c r="Q44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R44" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S44" s="44" t="s">
+      <c r="R44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T44" s="43" t="s">
+      <c r="T44" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U44" s="44" t="s">
+      <c r="U44" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
     </row>
     <row r="45" spans="2:37" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="11">
@@ -2542,41 +2584,41 @@
       <c r="D45" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="26"/>
       <c r="G45" s="10"/>
-      <c r="L45" s="44" t="s">
+      <c r="L45" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M45" s="43" t="s">
+      <c r="M45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N45" s="43" t="s">
+      <c r="N45" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O45" s="43" t="s">
+      <c r="O45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P45" s="44" t="s">
+      <c r="P45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q45" s="43" t="s">
+      <c r="Q45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R45" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S45" s="44" t="s">
+      <c r="R45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S45" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T45" s="43" t="s">
+      <c r="T45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U45" s="44" t="s">
+      <c r="U45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B46" s="11">
@@ -2588,41 +2630,41 @@
       <c r="D46" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="26"/>
       <c r="G46" s="8"/>
-      <c r="L46" s="43" t="s">
+      <c r="L46" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M46" s="43" t="s">
+      <c r="M46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N46" s="43" t="s">
+      <c r="N46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O46" s="43" t="s">
+      <c r="O46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P46" s="43" t="s">
+      <c r="P46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q46" s="43" t="s">
+      <c r="Q46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R46" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S46" s="44" t="s">
+      <c r="R46" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S46" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T46" s="43" t="s">
+      <c r="T46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U46" s="43">
+      <c r="U46" s="2">
         <v>1001</v>
       </c>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B47" s="11">
@@ -2634,45 +2676,45 @@
       <c r="D47" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="37" t="s">
         <v>119</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="14"/>
-      <c r="L47" s="43" t="s">
+      <c r="L47" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M47" s="43" t="s">
+      <c r="M47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N47" s="43" t="s">
+      <c r="N47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O47" s="43" t="s">
+      <c r="O47" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P47" s="43" t="s">
+      <c r="P47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q47" s="43" t="s">
+      <c r="Q47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R47" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S47" s="44" t="s">
+      <c r="R47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S47" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T47" s="43" t="s">
+      <c r="T47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U47" s="43">
+      <c r="U47" s="2">
         <v>1001</v>
       </c>
-      <c r="V47" s="43" t="s">
+      <c r="V47" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W47" s="43" t="s">
+      <c r="W47" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2686,75 +2728,75 @@
       <c r="D48" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E48" s="28"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="35"/>
       <c r="G48" s="8"/>
-      <c r="L48" s="43" t="s">
+      <c r="L48" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M48" s="43" t="s">
+      <c r="M48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N48" s="43">
+      <c r="N48" s="2">
         <v>517</v>
       </c>
-      <c r="O48" s="43" t="s">
+      <c r="O48" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P48" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q48" s="43">
+      <c r="P48" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q48" s="2">
         <v>517</v>
       </c>
-      <c r="R48" s="43" t="s">
+      <c r="R48" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S48" s="43" t="s">
+      <c r="S48" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T48" s="43" t="s">
+      <c r="T48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U48" s="43">
+      <c r="U48" s="2">
         <v>1001</v>
       </c>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="Z48" s="39" t="s">
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="Z48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AA48" s="39" t="s">
+      <c r="AA48" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AB48" s="39" t="s">
+      <c r="AB48" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AC48" s="39" t="s">
+      <c r="AC48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AD48" s="39" t="s">
+      <c r="AD48" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AE48" s="39" t="s">
+      <c r="AE48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="AF48" s="39" t="s">
+      <c r="AF48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AG48" s="39" t="s">
+      <c r="AG48" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AH48" s="39" t="s">
+      <c r="AH48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AI48" s="39" t="s">
+      <c r="AI48" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AJ48" s="39" t="s">
+      <c r="AJ48" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AK48" s="39" t="s">
+      <c r="AK48" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2768,53 +2810,53 @@
       <c r="D49" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E49" s="28"/>
+      <c r="E49" s="37"/>
       <c r="F49" s="35"/>
       <c r="G49" s="8"/>
-      <c r="L49" s="43">
+      <c r="L49" s="2">
         <v>517</v>
       </c>
-      <c r="M49" s="43">
+      <c r="M49" s="2">
         <v>800</v>
       </c>
-      <c r="N49" s="43">
+      <c r="N49" s="2">
         <v>518</v>
       </c>
-      <c r="O49" s="43">
+      <c r="O49" s="2">
         <v>800</v>
       </c>
-      <c r="P49" s="43" t="s">
+      <c r="P49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q49" s="43" t="s">
+      <c r="Q49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R49" s="43">
+      <c r="R49" s="2">
         <v>0</v>
       </c>
-      <c r="S49" s="44" t="s">
+      <c r="S49" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="T49" s="43" t="s">
+      <c r="T49" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U49" s="43">
+      <c r="U49" s="2">
         <v>1001</v>
       </c>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="Z49" s="39"/>
-      <c r="AA49" s="39"/>
-      <c r="AB49" s="39"/>
-      <c r="AC49" s="39"/>
-      <c r="AD49" s="39"/>
-      <c r="AE49" s="39"/>
-      <c r="AF49" s="39"/>
-      <c r="AG49" s="39"/>
-      <c r="AH49" s="39"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
-      <c r="AK49" s="39"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
     </row>
     <row r="50" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B50" s="11">
@@ -2826,73 +2868,73 @@
       <c r="D50" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E50" s="28"/>
+      <c r="E50" s="37"/>
       <c r="F50" s="35"/>
       <c r="G50" s="14"/>
-      <c r="L50" s="43">
+      <c r="L50" s="2">
         <v>518</v>
       </c>
-      <c r="M50" s="43">
+      <c r="M50" s="2">
         <v>700</v>
       </c>
-      <c r="N50" s="43">
+      <c r="N50" s="2">
         <v>519</v>
       </c>
-      <c r="O50" s="43">
+      <c r="O50" s="2">
         <v>700</v>
       </c>
-      <c r="P50" s="43">
+      <c r="P50" s="2">
         <v>518</v>
       </c>
-      <c r="Q50" s="43">
+      <c r="Q50" s="2">
         <v>700</v>
       </c>
-      <c r="R50" s="43">
+      <c r="R50" s="2">
         <v>0</v>
       </c>
-      <c r="S50" s="44" t="s">
+      <c r="S50" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="T50" s="43" t="s">
+      <c r="T50" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="U50" s="43">
+      <c r="U50" s="2">
         <v>1000</v>
       </c>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="Z50" s="39">
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="Z50" s="8">
         <v>509</v>
       </c>
-      <c r="AA50" s="39">
+      <c r="AA50" s="8">
         <v>200</v>
       </c>
-      <c r="AB50" s="39" t="s">
+      <c r="AB50" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AC50" s="39">
+      <c r="AC50" s="8">
         <v>200</v>
       </c>
-      <c r="AD50" s="39">
+      <c r="AD50" s="8">
         <v>509</v>
       </c>
-      <c r="AE50" s="39">
+      <c r="AE50" s="8">
         <v>200</v>
       </c>
-      <c r="AF50" s="39">
+      <c r="AF50" s="8">
         <v>0</v>
       </c>
-      <c r="AG50" s="39">
+      <c r="AG50" s="8">
         <v>509</v>
       </c>
-      <c r="AH50" s="39">
+      <c r="AH50" s="8">
         <v>0</v>
       </c>
-      <c r="AI50" s="39">
+      <c r="AI50" s="8">
         <v>100</v>
       </c>
-      <c r="AJ50" s="39"/>
-      <c r="AK50" s="39"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
     </row>
     <row r="51" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B51" s="11">
@@ -2904,75 +2946,75 @@
       <c r="D51" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E51" s="28"/>
+      <c r="E51" s="37"/>
       <c r="F51" s="35"/>
       <c r="G51" s="8"/>
-      <c r="L51" s="43">
+      <c r="L51" s="2">
         <v>519</v>
       </c>
-      <c r="M51" s="43" t="s">
+      <c r="M51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N51" s="43" t="s">
+      <c r="N51" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O51" s="43" t="s">
+      <c r="O51" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P51" s="43">
+      <c r="P51" s="2">
         <v>526</v>
       </c>
-      <c r="Q51" s="43" t="s">
+      <c r="Q51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R51" s="43">
+      <c r="R51" s="2">
         <v>0</v>
       </c>
-      <c r="S51" s="43" t="s">
+      <c r="S51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="T51" s="43" t="s">
+      <c r="T51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U51" s="43">
+      <c r="U51" s="2">
         <v>1000</v>
       </c>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="Z51" s="39" t="s">
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="Z51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA51" s="39" t="s">
+      <c r="AA51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AB51" s="39" t="s">
+      <c r="AB51" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AC51" s="39" t="s">
+      <c r="AC51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AD51" s="39">
+      <c r="AD51" s="8">
         <v>526</v>
       </c>
-      <c r="AE51" s="39">
+      <c r="AE51" s="8">
         <v>0</v>
       </c>
-      <c r="AF51" s="39">
+      <c r="AF51" s="8">
         <v>0</v>
       </c>
-      <c r="AG51" s="39" t="s">
+      <c r="AG51" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="AH51" s="39">
+      <c r="AH51" s="8">
         <v>0</v>
       </c>
-      <c r="AI51" s="39">
+      <c r="AI51" s="8">
         <v>100</v>
       </c>
-      <c r="AJ51" s="39">
+      <c r="AJ51" s="8">
         <v>526</v>
       </c>
-      <c r="AK51" s="39">
+      <c r="AK51" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2986,77 +3028,77 @@
       <c r="D52" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E52" s="28"/>
+      <c r="E52" s="37"/>
       <c r="F52" s="35"/>
       <c r="G52" s="10"/>
-      <c r="L52" s="43" t="s">
+      <c r="L52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M52" s="43" t="s">
+      <c r="M52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N52" s="43" t="s">
+      <c r="N52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O52" s="43" t="s">
+      <c r="O52" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P52" s="43">
+      <c r="P52" s="2">
         <v>526</v>
       </c>
-      <c r="Q52" s="43" t="s">
+      <c r="Q52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R52" s="43">
+      <c r="R52" s="2">
         <v>0</v>
       </c>
-      <c r="S52" s="43" t="s">
+      <c r="S52" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="T52" s="43" t="s">
+      <c r="T52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="U52" s="43">
+      <c r="U52" s="2">
         <v>1000</v>
       </c>
-      <c r="V52" s="43">
+      <c r="V52" s="2">
         <v>526</v>
       </c>
-      <c r="W52" s="43" t="s">
+      <c r="W52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Z52" s="39" t="s">
+      <c r="Z52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AA52" s="39" t="s">
+      <c r="AA52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AB52" s="39" t="s">
+      <c r="AB52" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AC52" s="39" t="s">
+      <c r="AC52" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AD52" s="39">
+      <c r="AD52" s="8">
         <v>524</v>
       </c>
-      <c r="AE52" s="39" t="s">
+      <c r="AE52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AF52" s="39">
+      <c r="AF52" s="8">
         <v>0</v>
       </c>
-      <c r="AG52" s="40" t="s">
+      <c r="AG52" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AH52" s="39" t="s">
+      <c r="AH52" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="AI52" s="39">
+      <c r="AI52" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="39"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
     </row>
     <row r="53" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B53" s="11">
@@ -3068,75 +3110,75 @@
       <c r="D53" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="28"/>
+      <c r="E53" s="37"/>
       <c r="F53" s="35"/>
       <c r="G53" s="8"/>
-      <c r="L53" s="43" t="s">
+      <c r="L53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M53" s="43" t="s">
+      <c r="M53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N53" s="43" t="s">
+      <c r="N53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="O53" s="43" t="s">
+      <c r="O53" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P53" s="43">
+      <c r="P53" s="2">
         <v>523</v>
       </c>
-      <c r="Q53" s="43" t="s">
+      <c r="Q53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R53" s="43">
+      <c r="R53" s="2">
         <v>0</v>
       </c>
-      <c r="S53" s="44" t="s">
+      <c r="S53" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="T53" s="43" t="s">
+      <c r="T53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="U53" s="43">
+      <c r="U53" s="2">
         <v>1000</v>
       </c>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
-      <c r="Z53" s="39" t="s">
+      <c r="Z53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AA53" s="39">
+      <c r="AA53" s="8">
         <v>740</v>
       </c>
-      <c r="AB53" s="39" t="s">
+      <c r="AB53" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AC53" s="39">
+      <c r="AC53" s="8">
         <v>740</v>
       </c>
-      <c r="AD53" s="39" t="s">
+      <c r="AD53" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AE53" s="39">
+      <c r="AE53" s="8">
         <v>740</v>
       </c>
-      <c r="AF53" s="39">
+      <c r="AF53" s="8">
         <v>0</v>
       </c>
-      <c r="AG53" s="39" t="s">
+      <c r="AG53" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="AH53" s="39" t="s">
+      <c r="AH53" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AI53" s="39">
+      <c r="AI53" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="39"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
     </row>
     <row r="54" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
@@ -3148,81 +3190,81 @@
       <c r="D54" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E54" s="28"/>
+      <c r="E54" s="37"/>
       <c r="F54" s="35"/>
       <c r="G54" s="10"/>
-      <c r="L54" s="43" t="s">
+      <c r="L54" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M54" s="43" t="s">
+      <c r="M54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N54" s="43" t="s">
+      <c r="N54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O54" s="43" t="s">
+      <c r="O54" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P54" s="43" t="s">
+      <c r="P54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q54" s="43" t="s">
+      <c r="Q54" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R54" s="43" t="s">
+      <c r="R54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S54" s="43" t="s">
+      <c r="S54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="T54" s="43" t="s">
+      <c r="T54" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="U54" s="43">
+      <c r="U54" s="2">
         <v>1000</v>
       </c>
-      <c r="V54" s="43" t="s">
+      <c r="V54" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W54" s="43" t="s">
+      <c r="W54" s="2" t="s">
         <v>144</v>
       </c>
       <c r="X54" s="8"/>
       <c r="Y54" s="8"/>
-      <c r="Z54" s="39" t="s">
+      <c r="Z54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AA54" s="39" t="s">
+      <c r="AA54" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB54" s="39" t="s">
+      <c r="AB54" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AC54" s="39" t="s">
+      <c r="AC54" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD54" s="39" t="s">
+      <c r="AD54" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE54" s="39" t="s">
+      <c r="AE54" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AF54" s="39" t="s">
+      <c r="AF54" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AG54" s="39" t="s">
+      <c r="AG54" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="AH54" s="39" t="s">
+      <c r="AH54" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AI54" s="39">
+      <c r="AI54" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ54" s="39" t="s">
+      <c r="AJ54" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AK54" s="39" t="s">
+      <c r="AK54" s="8" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3236,82 +3278,82 @@
       <c r="D55" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="F55" s="36"/>
-      <c r="L55" s="43" t="s">
+      <c r="F55" s="26"/>
+      <c r="L55" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M55" s="43" t="s">
+      <c r="M55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N55" s="44" t="s">
+      <c r="N55" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="O55" s="43" t="s">
+      <c r="O55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P55" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q55" s="43" t="s">
+      <c r="P55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R55" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S55" s="43" t="s">
+      <c r="R55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S55" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T55" s="43" t="s">
+      <c r="T55" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="U55" s="43">
+      <c r="U55" s="2">
         <v>1000</v>
       </c>
-      <c r="V55" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="W55" s="43" t="s">
+      <c r="V55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W55" s="2" t="s">
         <v>146</v>
       </c>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
-      <c r="Z55" s="39" t="s">
+      <c r="Z55" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AA55" s="39" t="s">
+      <c r="AA55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB55" s="40" t="s">
+      <c r="AB55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AC55" s="39" t="s">
+      <c r="AC55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AD55" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE55" s="39" t="s">
+      <c r="AD55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE55" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AF55" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG55" s="39" t="s">
+      <c r="AF55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG55" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AH55" s="39" t="s">
+      <c r="AH55" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AI55" s="39">
+      <c r="AI55" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ55" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK55" s="39" t="s">
+      <c r="AJ55" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK55" s="8" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3325,74 +3367,74 @@
       <c r="D56" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E56" s="27"/>
-      <c r="F56" s="36"/>
-      <c r="L56" s="44" t="s">
+      <c r="E56" s="36"/>
+      <c r="F56" s="26"/>
+      <c r="L56" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="M56" s="43" t="s">
+      <c r="M56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N56" s="44" t="s">
+      <c r="N56" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="O56" s="43" t="s">
+      <c r="O56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P56" s="43" t="s">
+      <c r="P56" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q56" s="43" t="s">
+      <c r="Q56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="R56" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S56" s="44" t="s">
+      <c r="R56" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S56" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T56" s="43" t="s">
+      <c r="T56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="U56" s="43">
+      <c r="U56" s="2">
         <v>1000</v>
       </c>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
-      <c r="Z56" s="40" t="s">
+      <c r="Z56" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AA56" s="39" t="s">
+      <c r="AA56" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AB56" s="40" t="s">
+      <c r="AB56" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AC56" s="39" t="s">
+      <c r="AC56" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AD56" s="39" t="s">
+      <c r="AD56" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE56" s="39" t="s">
+      <c r="AE56" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AF56" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG56" s="39">
+      <c r="AF56" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG56" s="8">
         <v>1</v>
       </c>
-      <c r="AH56" s="39" t="s">
+      <c r="AH56" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AI56" s="39">
+      <c r="AI56" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="39"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
@@ -3404,75 +3446,75 @@
       <c r="D57" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="26"/>
       <c r="G57" s="15"/>
-      <c r="L57" s="44" t="s">
+      <c r="L57" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="M57" s="43" t="s">
+      <c r="M57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N57" s="44" t="s">
+      <c r="N57" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="O57" s="43" t="s">
+      <c r="O57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P57" s="44" t="s">
+      <c r="P57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="Q57" s="43" t="s">
+      <c r="Q57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="R57" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S57" s="44" t="s">
+      <c r="R57" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S57" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="T57" s="43" t="s">
+      <c r="T57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="U57" s="43">
+      <c r="U57" s="2">
         <v>1000</v>
       </c>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
       <c r="X57" s="8"/>
       <c r="Y57" s="8"/>
-      <c r="Z57" s="40" t="s">
+      <c r="Z57" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AA57" s="39" t="s">
+      <c r="AA57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB57" s="40" t="s">
+      <c r="AB57" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AC57" s="39" t="s">
+      <c r="AC57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AD57" s="40" t="s">
+      <c r="AD57" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AE57" s="39" t="s">
+      <c r="AE57" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF57" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG57" s="40" t="s">
+      <c r="AF57" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG57" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AH57" s="39" t="s">
+      <c r="AH57" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AI57" s="39">
+      <c r="AI57" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ57" s="39"/>
-      <c r="AK57" s="39"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
     </row>
     <row r="58" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B58" s="11" t="s">
@@ -3484,74 +3526,74 @@
       <c r="D58" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E58" s="27"/>
-      <c r="F58" s="36"/>
-      <c r="L58" s="44" t="s">
+      <c r="E58" s="36"/>
+      <c r="F58" s="26"/>
+      <c r="L58" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="M58" s="44" t="s">
+      <c r="M58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="N58" s="43" t="s">
+      <c r="N58" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O58" s="44" t="s">
+      <c r="O58" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="P58" s="43" t="s">
+      <c r="P58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q58" s="43" t="s">
+      <c r="Q58" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R58" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S58" s="44" t="s">
+      <c r="R58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S58" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="T58" s="43" t="s">
+      <c r="T58" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="U58" s="43">
+      <c r="U58" s="2">
         <v>1000</v>
       </c>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
-      <c r="Z58" s="40" t="s">
+      <c r="Z58" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA58" s="41" t="s">
+      <c r="AA58" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AB58" s="39" t="s">
+      <c r="AB58" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC58" s="40" t="s">
+      <c r="AC58" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AD58" s="39" t="s">
+      <c r="AD58" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE58" s="39" t="s">
+      <c r="AE58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF58" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG58" s="39">
+      <c r="AF58" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG58" s="8">
         <v>9</v>
       </c>
-      <c r="AH58" s="39" t="s">
+      <c r="AH58" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AI58" s="39">
+      <c r="AI58" s="8">
         <v>1</v>
       </c>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
@@ -3563,74 +3605,74 @@
       <c r="D59" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E59" s="27"/>
-      <c r="F59" s="36"/>
-      <c r="L59" s="43" t="s">
+      <c r="E59" s="36"/>
+      <c r="F59" s="26"/>
+      <c r="L59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M59" s="43" t="s">
+      <c r="M59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N59" s="43" t="s">
+      <c r="N59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O59" s="43" t="s">
+      <c r="O59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P59" s="43" t="s">
+      <c r="P59" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q59" s="43" t="s">
+      <c r="Q59" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R59" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S59" s="44" t="s">
+      <c r="R59" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T59" s="43" t="s">
+      <c r="T59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="U59" s="43">
+      <c r="U59" s="2">
         <v>1000</v>
       </c>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
-      <c r="Z59" s="39" t="s">
+      <c r="Z59" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AA59" s="39" t="s">
+      <c r="AA59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AB59" s="39" t="s">
+      <c r="AB59" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AC59" s="39" t="s">
+      <c r="AC59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AD59" s="39" t="s">
+      <c r="AD59" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AE59" s="39" t="s">
+      <c r="AE59" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AF59" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG59" s="39" t="s">
+      <c r="AF59" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG59" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="AH59" s="39" t="s">
+      <c r="AH59" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AI59" s="39">
+      <c r="AI59" s="8">
         <v>1</v>
       </c>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
     </row>
     <row r="60" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
@@ -3642,74 +3684,74 @@
       <c r="D60" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="36"/>
-      <c r="L60" s="43" t="s">
+      <c r="E60" s="36"/>
+      <c r="F60" s="26"/>
+      <c r="L60" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M60" s="43" t="s">
+      <c r="M60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N60" s="43" t="s">
+      <c r="N60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O60" s="43" t="s">
+      <c r="O60" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P60" s="43" t="s">
+      <c r="P60" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q60" s="43" t="s">
+      <c r="Q60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R60" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S60" s="44" t="s">
+      <c r="R60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S60" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="T60" s="43" t="s">
+      <c r="T60" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U60" s="43">
+      <c r="U60" s="2">
         <v>1000</v>
       </c>
-      <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="8"/>
       <c r="Y60" s="8"/>
-      <c r="Z60" s="39" t="s">
+      <c r="Z60" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AA60" s="39" t="s">
+      <c r="AA60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AB60" s="39" t="s">
+      <c r="AB60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AC60" s="39" t="s">
+      <c r="AC60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AD60" s="39" t="s">
+      <c r="AD60" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AE60" s="39" t="s">
+      <c r="AE60" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AF60" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG60" s="39" t="s">
+      <c r="AF60" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG60" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="AH60" s="39" t="s">
+      <c r="AH60" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="AI60" s="39">
+      <c r="AI60" s="8">
         <v>1</v>
       </c>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
     </row>
     <row r="61" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
@@ -3721,78 +3763,78 @@
       <c r="D61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="36"/>
-      <c r="L61" s="43" t="s">
+      <c r="E61" s="36"/>
+      <c r="F61" s="26"/>
+      <c r="L61" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M61" s="43" t="s">
+      <c r="M61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N61" s="43" t="s">
+      <c r="N61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O61" s="43" t="s">
+      <c r="O61" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P61" s="43" t="s">
+      <c r="P61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q61" s="43" t="s">
+      <c r="Q61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R61" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="S61" s="44" t="s">
+      <c r="R61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S61" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T61" s="43" t="s">
+      <c r="T61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U61" s="43">
+      <c r="U61" s="2">
         <v>1000</v>
       </c>
-      <c r="V61" s="43" t="s">
+      <c r="V61" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="W61" s="43" t="s">
+      <c r="W61" s="2" t="s">
         <v>82</v>
       </c>
       <c r="X61" s="8"/>
       <c r="Y61" s="8"/>
-      <c r="Z61" s="39" t="s">
+      <c r="Z61" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AA61" s="40" t="s">
+      <c r="AA61" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AB61" s="39" t="s">
+      <c r="AB61" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AC61" s="40" t="s">
+      <c r="AC61" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AD61" s="39" t="s">
+      <c r="AD61" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE61" s="39" t="s">
+      <c r="AE61" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF61" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG61" s="39">
+      <c r="AF61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG61" s="8">
         <v>6</v>
       </c>
-      <c r="AH61" s="39" t="s">
+      <c r="AH61" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AI61" s="39">
+      <c r="AI61" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
     </row>
     <row r="62" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
@@ -3806,72 +3848,72 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="8"/>
-      <c r="L62" s="43" t="s">
+      <c r="L62" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M62" s="43" t="s">
+      <c r="M62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="N62" s="43" t="s">
+      <c r="N62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O62" s="43" t="s">
+      <c r="O62" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P62" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q62" s="43" t="s">
+      <c r="P62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q62" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="R62" s="43" t="s">
+      <c r="R62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="S62" s="43" t="s">
+      <c r="S62" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="T62" s="43" t="s">
+      <c r="T62" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U62" s="43">
+      <c r="U62" s="2">
         <v>1000</v>
       </c>
-      <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
       <c r="X62" s="8"/>
       <c r="Y62" s="8"/>
-      <c r="Z62" s="39" t="s">
+      <c r="Z62" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AA62" s="39" t="s">
+      <c r="AA62" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AB62" s="39" t="s">
+      <c r="AB62" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AC62" s="39" t="s">
+      <c r="AC62" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AD62" s="39" t="s">
+      <c r="AD62" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE62" s="39" t="s">
+      <c r="AE62" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="AF62" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG62" s="39">
+      <c r="AF62" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG62" s="8">
         <v>1</v>
       </c>
-      <c r="AH62" s="39" t="s">
+      <c r="AH62" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="AI62" s="39">
+      <c r="AI62" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ62" s="39"/>
-      <c r="AK62" s="39"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
@@ -3885,72 +3927,72 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="8"/>
-      <c r="L63" s="43" t="s">
+      <c r="L63" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M63" s="43">
+      <c r="M63" s="2">
         <v>800</v>
       </c>
-      <c r="N63" s="43" t="s">
+      <c r="N63" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O63" s="43">
+      <c r="O63" s="2">
         <v>800</v>
       </c>
-      <c r="P63" s="43" t="s">
+      <c r="P63" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Q63" s="43" t="s">
+      <c r="Q63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R63" s="43">
+      <c r="R63" s="2">
         <v>0</v>
       </c>
-      <c r="S63" s="43" t="s">
+      <c r="S63" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="T63" s="43" t="s">
+      <c r="T63" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="U63" s="43">
+      <c r="U63" s="2">
         <v>1000</v>
       </c>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
       <c r="X63" s="8"/>
       <c r="Y63" s="8"/>
-      <c r="Z63" s="39" t="s">
+      <c r="Z63" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AA63" s="40" t="s">
+      <c r="AA63" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AB63" s="39" t="s">
+      <c r="AB63" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AC63" s="40" t="s">
+      <c r="AC63" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="AD63" s="39" t="s">
+      <c r="AD63" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AE63" s="39" t="s">
+      <c r="AE63" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="AF63" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG63" s="39">
+      <c r="AF63" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG63" s="8">
         <v>5</v>
       </c>
-      <c r="AH63" s="39" t="s">
+      <c r="AH63" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AI63" s="39">
+      <c r="AI63" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ63" s="39"/>
-      <c r="AK63" s="39"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
     </row>
     <row r="64" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
@@ -3964,72 +4006,72 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="8"/>
-      <c r="L64" s="43" t="s">
+      <c r="L64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="2">
         <v>740</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N64" s="2">
         <v>520</v>
       </c>
-      <c r="O64" s="43">
+      <c r="O64" s="2">
         <v>740</v>
       </c>
-      <c r="P64" s="43" t="s">
+      <c r="P64" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q64" s="43">
+      <c r="Q64" s="2">
         <v>740</v>
       </c>
-      <c r="R64" s="43">
+      <c r="R64" s="2">
         <v>0</v>
       </c>
-      <c r="S64" s="43" t="s">
+      <c r="S64" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="T64" s="43" t="s">
+      <c r="T64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U64" s="43">
+      <c r="U64" s="2">
         <v>1001</v>
       </c>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
       <c r="X64" s="8"/>
       <c r="Y64" s="8"/>
-      <c r="Z64" s="39" t="s">
+      <c r="Z64" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AA64" s="39" t="s">
+      <c r="AA64" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AB64" s="39" t="s">
+      <c r="AB64" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC64" s="39" t="s">
+      <c r="AC64" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="AD64" s="39" t="s">
+      <c r="AD64" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AE64" s="39" t="s">
+      <c r="AE64" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="AF64" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG64" s="39">
+      <c r="AF64" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG64" s="8">
         <v>1</v>
       </c>
-      <c r="AH64" s="39" t="s">
+      <c r="AH64" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AI64" s="39">
+      <c r="AI64" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ64" s="39"/>
-      <c r="AK64" s="39"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
@@ -4043,74 +4085,74 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="8"/>
-      <c r="L65" s="43">
+      <c r="L65" s="2">
         <v>520</v>
       </c>
-      <c r="M65" s="44" t="s">
+      <c r="M65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N65" s="43">
+      <c r="N65" s="2">
         <v>521</v>
       </c>
-      <c r="O65" s="44" t="s">
+      <c r="O65" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P65" s="43">
+      <c r="P65" s="2">
         <v>526</v>
       </c>
-      <c r="Q65" s="43" t="s">
+      <c r="Q65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R65" s="43">
+      <c r="R65" s="2">
         <v>0</v>
       </c>
-      <c r="S65" s="44" t="s">
+      <c r="S65" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="T65" s="43" t="s">
+      <c r="T65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="U65" s="43">
+      <c r="U65" s="2">
         <v>1000</v>
       </c>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
       <c r="X65" s="8"/>
       <c r="Y65" s="8"/>
-      <c r="Z65" s="39" t="s">
+      <c r="Z65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA65" s="39" t="s">
+      <c r="AA65" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AB65" s="39" t="s">
+      <c r="AB65" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AC65" s="39" t="s">
+      <c r="AC65" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AD65" s="39" t="s">
+      <c r="AD65" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE65" s="39" t="s">
+      <c r="AE65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AF65" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG65" s="39">
+      <c r="AF65" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG65" s="8">
         <v>1</v>
       </c>
-      <c r="AH65" s="39" t="s">
+      <c r="AH65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AI65" s="39">
+      <c r="AI65" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ65" s="39" t="s">
+      <c r="AJ65" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AK65" s="39" t="s">
+      <c r="AK65" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4126,76 +4168,76 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="8"/>
-      <c r="L66" s="43">
+      <c r="L66" s="2">
         <v>521</v>
       </c>
-      <c r="M66" s="43" t="s">
+      <c r="M66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N66" s="43">
+      <c r="N66" s="2">
         <v>522</v>
       </c>
-      <c r="O66" s="43" t="s">
+      <c r="O66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P66" s="43">
+      <c r="P66" s="2">
         <v>526</v>
       </c>
-      <c r="Q66" s="43" t="s">
+      <c r="Q66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R66" s="43">
+      <c r="R66" s="2">
         <v>0</v>
       </c>
-      <c r="S66" s="44" t="s">
+      <c r="S66" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T66" s="43" t="s">
+      <c r="T66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="U66" s="43">
+      <c r="U66" s="2">
         <v>1000</v>
       </c>
-      <c r="V66" s="43">
+      <c r="V66" s="2">
         <v>526</v>
       </c>
-      <c r="W66" s="43" t="s">
+      <c r="W66" s="2" t="s">
         <v>149</v>
       </c>
       <c r="X66" s="8"/>
       <c r="Y66" s="8"/>
-      <c r="Z66" s="39" t="s">
+      <c r="Z66" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AA66" s="39" t="s">
+      <c r="AA66" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AB66" s="39" t="s">
+      <c r="AB66" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AC66" s="39" t="s">
+      <c r="AC66" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AD66" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE66" s="39" t="s">
+      <c r="AD66" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE66" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AF66" s="39" t="s">
+      <c r="AF66" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AG66" s="39" t="s">
+      <c r="AG66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AH66" s="39" t="s">
+      <c r="AH66" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AI66" s="39">
+      <c r="AI66" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ66" s="39"/>
-      <c r="AK66" s="39"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B67" s="10"/>
@@ -4203,72 +4245,72 @@
       <c r="D67" s="10"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
-      <c r="L67" s="43">
+      <c r="L67" s="2">
         <v>522</v>
       </c>
-      <c r="M67" s="44" t="s">
+      <c r="M67" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N67" s="43">
+      <c r="N67" s="2">
         <v>523</v>
       </c>
-      <c r="O67" s="43">
+      <c r="O67" s="2">
         <v>100</v>
       </c>
-      <c r="P67" s="43">
+      <c r="P67" s="2">
         <v>522</v>
       </c>
-      <c r="Q67" s="43">
+      <c r="Q67" s="2">
         <v>100</v>
       </c>
-      <c r="R67" s="43">
+      <c r="R67" s="2">
         <v>0</v>
       </c>
-      <c r="S67" s="43">
+      <c r="S67" s="2">
         <v>522</v>
       </c>
-      <c r="T67" s="43" t="s">
+      <c r="T67" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="U67" s="43">
+      <c r="U67" s="2">
         <v>1000</v>
       </c>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
       <c r="X67" s="8"/>
       <c r="Y67" s="8"/>
-      <c r="Z67" s="39" t="s">
+      <c r="Z67" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AA67" s="39">
+      <c r="AA67" s="8">
         <v>800</v>
       </c>
-      <c r="AB67" s="39">
+      <c r="AB67" s="8">
         <v>510</v>
       </c>
-      <c r="AC67" s="39">
+      <c r="AC67" s="8">
         <v>800</v>
       </c>
-      <c r="AD67" s="39" t="s">
+      <c r="AD67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE67" s="39" t="s">
+      <c r="AE67" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AF67" s="39">
+      <c r="AF67" s="8">
         <v>0</v>
       </c>
-      <c r="AG67" s="39" t="s">
+      <c r="AG67" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="AH67" s="39" t="s">
+      <c r="AH67" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="AI67" s="39">
+      <c r="AI67" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ67" s="39"/>
-      <c r="AK67" s="39"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
     </row>
     <row r="68" spans="2:37" x14ac:dyDescent="0.3">
       <c r="F68" s="8"/>
@@ -4285,46 +4327,46 @@
       <c r="W68" s="8"/>
       <c r="X68" s="8"/>
       <c r="Y68" s="8"/>
-      <c r="Z68" s="39">
+      <c r="Z68" s="8">
         <v>510</v>
       </c>
-      <c r="AA68" s="39">
+      <c r="AA68" s="8">
         <v>700</v>
       </c>
-      <c r="AB68" s="39">
+      <c r="AB68" s="8">
         <v>511</v>
       </c>
-      <c r="AC68" s="39">
+      <c r="AC68" s="8">
         <v>700</v>
       </c>
-      <c r="AD68" s="39">
+      <c r="AD68" s="8">
         <v>510</v>
       </c>
-      <c r="AE68" s="39">
+      <c r="AE68" s="8">
         <v>700</v>
       </c>
-      <c r="AF68" s="39">
+      <c r="AF68" s="8">
         <v>0</v>
       </c>
-      <c r="AG68" s="39">
+      <c r="AG68" s="8">
         <v>510</v>
       </c>
-      <c r="AH68" s="39" t="s">
+      <c r="AH68" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AI68" s="39">
+      <c r="AI68" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ68" s="39"/>
-      <c r="AK68" s="39"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
     </row>
     <row r="69" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="33"/>
       <c r="F69" s="35"/>
       <c r="G69" s="8"/>
       <c r="M69" s="8"/>
@@ -4340,38 +4382,38 @@
       <c r="W69" s="8"/>
       <c r="X69" s="8"/>
       <c r="Y69" s="8"/>
-      <c r="Z69" s="39">
+      <c r="Z69" s="8">
         <v>511</v>
       </c>
-      <c r="AA69" s="40" t="s">
+      <c r="AA69" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AB69" s="39">
+      <c r="AB69" s="8">
         <v>512</v>
       </c>
-      <c r="AC69" s="40" t="s">
+      <c r="AC69" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AD69" s="39">
+      <c r="AD69" s="8">
         <v>526</v>
       </c>
-      <c r="AE69" s="39">
+      <c r="AE69" s="8">
         <v>0</v>
       </c>
-      <c r="AF69" s="39">
+      <c r="AF69" s="8">
         <v>0</v>
       </c>
-      <c r="AG69" s="39">
+      <c r="AG69" s="8">
         <v>14</v>
       </c>
-      <c r="AH69" s="39" t="s">
+      <c r="AH69" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AI69" s="39">
+      <c r="AI69" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ69" s="39"/>
-      <c r="AK69" s="39"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
     </row>
     <row r="70" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
@@ -4399,40 +4441,40 @@
       <c r="W70" s="8"/>
       <c r="X70" s="8"/>
       <c r="Y70" s="8"/>
-      <c r="Z70" s="39">
+      <c r="Z70" s="8">
         <v>512</v>
       </c>
-      <c r="AA70" s="39" t="s">
+      <c r="AA70" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AB70" s="39">
+      <c r="AB70" s="8">
         <v>513</v>
       </c>
-      <c r="AC70" s="39" t="s">
+      <c r="AC70" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="AD70" s="39">
+      <c r="AD70" s="8">
         <v>526</v>
       </c>
-      <c r="AE70" s="39" t="s">
+      <c r="AE70" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AF70" s="39">
+      <c r="AF70" s="8">
         <v>0</v>
       </c>
-      <c r="AG70" s="39">
+      <c r="AG70" s="8">
         <v>13</v>
       </c>
-      <c r="AH70" s="39" t="s">
+      <c r="AH70" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AI70" s="39">
+      <c r="AI70" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ70" s="39">
+      <c r="AJ70" s="8">
         <v>526</v>
       </c>
-      <c r="AK70" s="39" t="s">
+      <c r="AK70" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4446,7 +4488,7 @@
       <c r="D71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E71" s="29" t="s">
+      <c r="E71" s="38" t="s">
         <v>109</v>
       </c>
       <c r="F71" s="35"/>
@@ -4464,38 +4506,38 @@
       <c r="W71" s="8"/>
       <c r="X71" s="8"/>
       <c r="Y71" s="8"/>
-      <c r="Z71" s="39">
+      <c r="Z71" s="8">
         <v>513</v>
       </c>
-      <c r="AA71" s="39" t="s">
+      <c r="AA71" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AB71" s="39">
+      <c r="AB71" s="8">
         <v>514</v>
       </c>
-      <c r="AC71" s="39" t="s">
+      <c r="AC71" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AD71" s="39">
+      <c r="AD71" s="8">
         <v>525</v>
       </c>
-      <c r="AE71" s="39" t="s">
+      <c r="AE71" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AF71" s="39">
+      <c r="AF71" s="8">
         <v>0</v>
       </c>
-      <c r="AG71" s="39">
+      <c r="AG71" s="8">
         <v>11</v>
       </c>
-      <c r="AH71" s="39" t="s">
+      <c r="AH71" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AI71" s="39">
+      <c r="AI71" s="8">
         <v>0</v>
       </c>
-      <c r="AJ71" s="39"/>
-      <c r="AK71" s="39"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
     </row>
     <row r="72" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
@@ -4507,7 +4549,7 @@
       <c r="D72" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="30"/>
+      <c r="E72" s="39"/>
       <c r="F72" s="35"/>
       <c r="G72" s="8"/>
       <c r="M72" s="8"/>
@@ -4523,38 +4565,38 @@
       <c r="W72" s="8"/>
       <c r="X72" s="8"/>
       <c r="Y72" s="8"/>
-      <c r="Z72" s="39">
+      <c r="Z72" s="8">
         <v>514</v>
       </c>
-      <c r="AA72" s="39">
+      <c r="AA72" s="8">
         <v>740</v>
       </c>
-      <c r="AB72" s="39">
+      <c r="AB72" s="8">
         <v>515</v>
       </c>
-      <c r="AC72" s="39">
+      <c r="AC72" s="8">
         <v>740</v>
       </c>
-      <c r="AD72" s="39">
+      <c r="AD72" s="8">
         <v>514</v>
       </c>
-      <c r="AE72" s="39">
+      <c r="AE72" s="8">
         <v>740</v>
       </c>
-      <c r="AF72" s="39">
+      <c r="AF72" s="8">
         <v>0</v>
       </c>
-      <c r="AG72" s="39">
+      <c r="AG72" s="8">
         <v>514</v>
       </c>
-      <c r="AH72" s="39" t="s">
+      <c r="AH72" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AI72" s="39">
+      <c r="AI72" s="8">
         <v>1</v>
       </c>
-      <c r="AJ72" s="39"/>
-      <c r="AK72" s="39"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
     </row>
     <row r="73" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
@@ -4566,7 +4608,7 @@
       <c r="D73" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E73" s="30"/>
+      <c r="E73" s="39"/>
       <c r="F73" s="35"/>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4581,40 +4623,40 @@
       <c r="W73" s="8"/>
       <c r="X73" s="8"/>
       <c r="Y73" s="8"/>
-      <c r="Z73" s="39">
+      <c r="Z73" s="8">
         <v>515</v>
       </c>
-      <c r="AA73" s="39" t="s">
+      <c r="AA73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB73" s="39">
+      <c r="AB73" s="8">
         <v>516</v>
       </c>
-      <c r="AC73" s="39" t="s">
+      <c r="AC73" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD73" s="39" t="s">
+      <c r="AD73" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE73" s="39" t="s">
+      <c r="AE73" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AF73" s="39" t="s">
+      <c r="AF73" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AG73" s="39">
+      <c r="AG73" s="8">
         <v>515</v>
       </c>
-      <c r="AH73" s="39" t="s">
+      <c r="AH73" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AI73" s="39">
+      <c r="AI73" s="8">
         <v>1</v>
       </c>
-      <c r="AJ73" s="39" t="s">
+      <c r="AJ73" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AK73" s="39" t="s">
+      <c r="AK73" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4628,7 +4670,7 @@
       <c r="D74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E74" s="30"/>
+      <c r="E74" s="39"/>
       <c r="F74" s="34"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
@@ -4643,40 +4685,40 @@
       <c r="W74" s="8"/>
       <c r="X74" s="8"/>
       <c r="Y74" s="8"/>
-      <c r="Z74" s="39">
+      <c r="Z74" s="8">
         <v>516</v>
       </c>
-      <c r="AA74" s="39" t="s">
+      <c r="AA74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB74" s="40" t="s">
+      <c r="AB74" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AC74" s="39" t="s">
+      <c r="AC74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AD74" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE74" s="39">
+      <c r="AD74" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE74" s="8">
         <v>517</v>
       </c>
-      <c r="AF74" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG74" s="39" t="s">
+      <c r="AF74" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AH74" s="39" t="s">
+      <c r="AH74" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AI74" s="39">
+      <c r="AI74" s="8">
         <v>1</v>
       </c>
-      <c r="AJ74" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK74" s="39">
+      <c r="AJ74" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK74" s="8">
         <v>517</v>
       </c>
     </row>
@@ -4690,7 +4732,7 @@
       <c r="D75" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E75" s="31"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="34"/>
       <c r="M75" s="8"/>
       <c r="N75" s="8"/>
@@ -4705,38 +4747,38 @@
       <c r="W75" s="8"/>
       <c r="X75" s="8"/>
       <c r="Y75" s="8"/>
-      <c r="Z75" s="40" t="s">
+      <c r="Z75" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AA75" s="39" t="s">
+      <c r="AA75" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AB75" s="40" t="s">
+      <c r="AB75" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AC75" s="39" t="s">
+      <c r="AC75" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AD75" s="39" t="s">
+      <c r="AD75" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE75" s="39" t="s">
+      <c r="AE75" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AF75" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG75" s="39">
+      <c r="AF75" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG75" s="8">
         <v>1</v>
       </c>
-      <c r="AH75" s="39" t="s">
+      <c r="AH75" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AI75" s="39">
+      <c r="AI75" s="8">
         <v>1</v>
       </c>
-      <c r="AJ75" s="39"/>
-      <c r="AK75" s="39"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
     </row>
     <row r="76" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
@@ -4748,7 +4790,7 @@
       <c r="D76" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E76" s="32" t="s">
+      <c r="E76" s="29" t="s">
         <v>110</v>
       </c>
       <c r="F76" s="8"/>
@@ -4765,38 +4807,38 @@
       <c r="W76" s="8"/>
       <c r="X76" s="8"/>
       <c r="Y76" s="8"/>
-      <c r="Z76" s="40" t="s">
+      <c r="Z76" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AA76" s="39" t="s">
+      <c r="AA76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB76" s="39" t="s">
+      <c r="AB76" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AC76" s="39" t="s">
+      <c r="AC76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AD76" s="40" t="s">
+      <c r="AD76" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AE76" s="39" t="s">
+      <c r="AE76" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF76" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG76" s="39">
+      <c r="AF76" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG76" s="8">
         <v>7</v>
       </c>
-      <c r="AH76" s="39" t="s">
+      <c r="AH76" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="AI76" s="39">
+      <c r="AI76" s="8">
         <v>1</v>
       </c>
-      <c r="AJ76" s="39"/>
-      <c r="AK76" s="39"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
     </row>
     <row r="77" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
@@ -4808,7 +4850,7 @@
       <c r="D77" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="33"/>
+      <c r="E77" s="30"/>
       <c r="F77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
@@ -4823,38 +4865,38 @@
       <c r="W77" s="8"/>
       <c r="X77" s="8"/>
       <c r="Y77" s="8"/>
-      <c r="Z77" s="39" t="s">
+      <c r="Z77" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AA77" s="39" t="s">
+      <c r="AA77" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AB77" s="39" t="s">
+      <c r="AB77" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC77" s="39" t="s">
+      <c r="AC77" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AD77" s="39" t="s">
+      <c r="AD77" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE77" s="39" t="s">
+      <c r="AE77" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF77" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG77" s="39">
+      <c r="AF77" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG77" s="8">
         <v>2</v>
       </c>
-      <c r="AH77" s="39" t="s">
+      <c r="AH77" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI77" s="39">
+      <c r="AI77" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ77" s="39"/>
-      <c r="AK77" s="39"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
     </row>
     <row r="78" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
@@ -4881,40 +4923,40 @@
       <c r="W78" s="8"/>
       <c r="X78" s="8"/>
       <c r="Y78" s="8"/>
-      <c r="Z78" s="39" t="s">
+      <c r="Z78" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA78" s="39" t="s">
+      <c r="AA78" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AB78" s="39" t="s">
+      <c r="AB78" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AC78" s="39" t="s">
+      <c r="AC78" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AD78" s="39" t="s">
+      <c r="AD78" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE78" s="39" t="s">
+      <c r="AE78" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF78" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG78" s="39">
+      <c r="AF78" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG78" s="8">
         <v>1</v>
       </c>
-      <c r="AH78" s="39" t="s">
+      <c r="AH78" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI78" s="39">
+      <c r="AI78" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ78" s="39" t="s">
+      <c r="AJ78" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AK78" s="39" t="s">
+      <c r="AK78" s="8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4943,38 +4985,38 @@
       <c r="W79" s="8"/>
       <c r="X79" s="8"/>
       <c r="Y79" s="8"/>
-      <c r="Z79" s="39" t="s">
+      <c r="Z79" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AA79" s="39" t="s">
+      <c r="AA79" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AB79" s="39">
+      <c r="AB79" s="8">
         <v>517</v>
       </c>
-      <c r="AC79" s="39" t="s">
+      <c r="AC79" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AD79" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE79" s="39">
+      <c r="AD79" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE79" s="8">
         <v>517</v>
       </c>
-      <c r="AF79" s="39" t="s">
+      <c r="AF79" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AG79" s="39" t="s">
+      <c r="AG79" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AH79" s="39" t="s">
+      <c r="AH79" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI79" s="39">
+      <c r="AI79" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ79" s="39"/>
-      <c r="AK79" s="39"/>
+      <c r="AJ79" s="8"/>
+      <c r="AK79" s="8"/>
     </row>
     <row r="80" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
@@ -5001,38 +5043,38 @@
       <c r="W80" s="8"/>
       <c r="X80" s="8"/>
       <c r="Y80" s="8"/>
-      <c r="Z80" s="39">
+      <c r="Z80" s="8">
         <v>517</v>
       </c>
-      <c r="AA80" s="39">
+      <c r="AA80" s="8">
         <v>800</v>
       </c>
-      <c r="AB80" s="39">
+      <c r="AB80" s="8">
         <v>518</v>
       </c>
-      <c r="AC80" s="39">
+      <c r="AC80" s="8">
         <v>800</v>
       </c>
-      <c r="AD80" s="39" t="s">
+      <c r="AD80" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE80" s="39" t="s">
+      <c r="AE80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF80" s="39">
+      <c r="AF80" s="8">
         <v>0</v>
       </c>
-      <c r="AG80" s="39">
+      <c r="AG80" s="8">
         <v>517</v>
       </c>
-      <c r="AH80" s="39" t="s">
+      <c r="AH80" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI80" s="39">
+      <c r="AI80" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ80" s="39"/>
-      <c r="AK80" s="39"/>
+      <c r="AJ80" s="8"/>
+      <c r="AK80" s="8"/>
     </row>
     <row r="81" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B81" s="2" t="s">
@@ -5059,38 +5101,38 @@
       <c r="W81" s="8"/>
       <c r="X81" s="8"/>
       <c r="Y81" s="8"/>
-      <c r="Z81" s="39">
+      <c r="Z81" s="8">
         <v>518</v>
       </c>
-      <c r="AA81" s="39">
+      <c r="AA81" s="8">
         <v>700</v>
       </c>
-      <c r="AB81" s="39">
+      <c r="AB81" s="8">
         <v>519</v>
       </c>
-      <c r="AC81" s="39">
+      <c r="AC81" s="8">
         <v>700</v>
       </c>
-      <c r="AD81" s="39">
+      <c r="AD81" s="8">
         <v>518</v>
       </c>
-      <c r="AE81" s="39">
+      <c r="AE81" s="8">
         <v>700</v>
       </c>
-      <c r="AF81" s="39">
+      <c r="AF81" s="8">
         <v>0</v>
       </c>
-      <c r="AG81" s="39">
+      <c r="AG81" s="8">
         <v>518</v>
       </c>
-      <c r="AH81" s="39" t="s">
+      <c r="AH81" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AI81" s="39">
+      <c r="AI81" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ81" s="39"/>
-      <c r="AK81" s="39"/>
+      <c r="AJ81" s="8"/>
+      <c r="AK81" s="8"/>
     </row>
     <row r="82" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B82" s="2" t="s">
@@ -5116,38 +5158,38 @@
       <c r="W82" s="8"/>
       <c r="X82" s="8"/>
       <c r="Y82" s="8"/>
-      <c r="Z82" s="39">
+      <c r="Z82" s="8">
         <v>519</v>
       </c>
-      <c r="AA82" s="39" t="s">
+      <c r="AA82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AB82" s="39" t="s">
+      <c r="AB82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AC82" s="39" t="s">
+      <c r="AC82" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AD82" s="39">
+      <c r="AD82" s="8">
         <v>526</v>
       </c>
-      <c r="AE82" s="39" t="s">
+      <c r="AE82" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="AF82" s="39">
+      <c r="AF82" s="8">
         <v>0</v>
       </c>
-      <c r="AG82" s="39" t="s">
+      <c r="AG82" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AH82" s="39" t="s">
+      <c r="AH82" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AI82" s="39">
+      <c r="AI82" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ82" s="39"/>
-      <c r="AK82" s="39"/>
+      <c r="AJ82" s="8"/>
+      <c r="AK82" s="8"/>
     </row>
     <row r="83" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B83" s="2" t="s">
@@ -5173,40 +5215,40 @@
       <c r="W83" s="8"/>
       <c r="X83" s="8"/>
       <c r="Y83" s="8"/>
-      <c r="Z83" s="39" t="s">
+      <c r="Z83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AA83" s="39" t="s">
+      <c r="AA83" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AB83" s="39" t="s">
+      <c r="AB83" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AC83" s="39" t="s">
+      <c r="AC83" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AD83" s="39">
+      <c r="AD83" s="8">
         <v>526</v>
       </c>
-      <c r="AE83" s="39" t="s">
+      <c r="AE83" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AF83" s="39">
+      <c r="AF83" s="8">
         <v>0</v>
       </c>
-      <c r="AG83" s="39" t="s">
+      <c r="AG83" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="AH83" s="39" t="s">
+      <c r="AH83" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AI83" s="39">
+      <c r="AI83" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ83" s="39">
+      <c r="AJ83" s="8">
         <v>526</v>
       </c>
-      <c r="AK83" s="39" t="s">
+      <c r="AK83" s="8" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5224,550 +5266,781 @@
       <c r="W84" s="8"/>
       <c r="X84" s="8"/>
       <c r="Y84" s="8"/>
-      <c r="Z84" s="39" t="s">
+      <c r="Z84" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AA84" s="39" t="s">
+      <c r="AA84" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AB84" s="39" t="s">
+      <c r="AB84" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AC84" s="39" t="s">
+      <c r="AC84" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="AD84" s="39">
+      <c r="AD84" s="8">
         <v>523</v>
       </c>
-      <c r="AE84" s="39" t="s">
+      <c r="AE84" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AF84" s="39">
+      <c r="AF84" s="8">
         <v>0</v>
       </c>
-      <c r="AG84" s="39">
+      <c r="AG84" s="8">
         <v>7</v>
       </c>
-      <c r="AH84" s="39" t="s">
+      <c r="AH84" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI84" s="39">
+      <c r="AI84" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ84" s="39"/>
-      <c r="AK84" s="39"/>
+      <c r="AJ84" s="8"/>
+      <c r="AK84" s="8"/>
     </row>
     <row r="85" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z85" s="39" t="s">
+      <c r="Z85" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="AA85" s="39" t="s">
+      <c r="AA85" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AB85" s="39" t="s">
+      <c r="AB85" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AC85" s="39" t="s">
+      <c r="AC85" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="AD85" s="39" t="s">
+      <c r="AD85" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE85" s="39" t="s">
+      <c r="AE85" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AF85" s="39" t="s">
+      <c r="AF85" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AG85" s="39" t="s">
+      <c r="AG85" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="AH85" s="39" t="s">
+      <c r="AH85" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI85" s="39">
+      <c r="AI85" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ85" s="39" t="s">
+      <c r="AJ85" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AK85" s="39" t="s">
+      <c r="AK85" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="86" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z86" s="39" t="s">
+      <c r="Z86" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AA86" s="39" t="s">
+      <c r="AA86" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AB86" s="40" t="s">
+      <c r="AB86" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AC86" s="39" t="s">
+      <c r="AC86" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AD86" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE86" s="39" t="s">
+      <c r="AD86" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE86" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AF86" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG86" s="39" t="s">
+      <c r="AF86" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG86" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="AH86" s="39" t="s">
+      <c r="AH86" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI86" s="39">
+      <c r="AI86" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ86" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AK86" s="39" t="s">
+      <c r="AJ86" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AK86" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z87" s="40" t="s">
+      <c r="Z87" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AA87" s="39" t="s">
+      <c r="AA87" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AB87" s="40" t="s">
+      <c r="AB87" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AC87" s="39" t="s">
+      <c r="AC87" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="AD87" s="39" t="s">
+      <c r="AD87" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE87" s="39" t="s">
+      <c r="AE87" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AF87" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG87" s="39">
+      <c r="AF87" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG87" s="8">
         <v>1</v>
       </c>
-      <c r="AH87" s="39" t="s">
+      <c r="AH87" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI87" s="39">
+      <c r="AI87" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ87" s="39"/>
-      <c r="AK87" s="39"/>
+      <c r="AJ87" s="8"/>
+      <c r="AK87" s="8"/>
     </row>
     <row r="88" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z88" s="40" t="s">
+      <c r="Z88" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AA88" s="39" t="s">
+      <c r="AA88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB88" s="40" t="s">
+      <c r="AB88" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AC88" s="39" t="s">
+      <c r="AC88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AD88" s="40" t="s">
+      <c r="AD88" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AE88" s="39" t="s">
+      <c r="AE88" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AF88" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG88" s="40" t="s">
+      <c r="AF88" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG88" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AH88" s="39" t="s">
+      <c r="AH88" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AI88" s="39">
+      <c r="AI88" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ88" s="39"/>
-      <c r="AK88" s="39"/>
+      <c r="AJ88" s="8"/>
+      <c r="AK88" s="8"/>
     </row>
     <row r="89" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z89" s="40" t="s">
+      <c r="Z89" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AA89" s="40" t="s">
+      <c r="AA89" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AB89" s="39" t="s">
+      <c r="AB89" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AC89" s="40" t="s">
+      <c r="AC89" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AD89" s="39" t="s">
+      <c r="AD89" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE89" s="39" t="s">
+      <c r="AE89" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF89" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG89" s="39">
+      <c r="AF89" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG89" s="8">
         <v>9</v>
       </c>
-      <c r="AH89" s="39" t="s">
+      <c r="AH89" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AI89" s="39">
+      <c r="AI89" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ89" s="39"/>
-      <c r="AK89" s="39"/>
+      <c r="AJ89" s="8"/>
+      <c r="AK89" s="8"/>
     </row>
     <row r="90" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z90" s="39" t="s">
+      <c r="Z90" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AA90" s="39" t="s">
+      <c r="AA90" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AB90" s="39" t="s">
+      <c r="AB90" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AC90" s="39" t="s">
+      <c r="AC90" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AD90" s="39" t="s">
+      <c r="AD90" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AE90" s="39" t="s">
+      <c r="AE90" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AF90" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG90" s="39">
+      <c r="AF90" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG90" s="8">
         <v>5</v>
       </c>
-      <c r="AH90" s="39" t="s">
+      <c r="AH90" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="AI90" s="39">
+      <c r="AI90" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ90" s="39"/>
-      <c r="AK90" s="39"/>
+      <c r="AJ90" s="8"/>
+      <c r="AK90" s="8"/>
     </row>
     <row r="91" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z91" s="39" t="s">
+      <c r="Z91" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AA91" s="39" t="s">
+      <c r="AA91" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AB91" s="39" t="s">
+      <c r="AB91" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AC91" s="39" t="s">
+      <c r="AC91" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AD91" s="39" t="s">
+      <c r="AD91" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AE91" s="39" t="s">
+      <c r="AE91" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF91" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG91" s="39">
+      <c r="AF91" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG91" s="8">
         <v>2</v>
       </c>
-      <c r="AH91" s="39" t="s">
+      <c r="AH91" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI91" s="39">
+      <c r="AI91" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ91" s="39"/>
-      <c r="AK91" s="39"/>
+      <c r="AJ91" s="8"/>
+      <c r="AK91" s="8"/>
     </row>
     <row r="92" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z92" s="39" t="s">
+      <c r="Z92" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AA92" s="39" t="s">
+      <c r="AA92" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AB92" s="39" t="s">
+      <c r="AB92" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AC92" s="39" t="s">
+      <c r="AC92" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="AD92" s="39" t="s">
+      <c r="AD92" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE92" s="39" t="s">
+      <c r="AE92" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF92" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AG92" s="39">
+      <c r="AF92" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG92" s="8">
         <v>1</v>
       </c>
-      <c r="AH92" s="39" t="s">
+      <c r="AH92" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI92" s="39">
+      <c r="AI92" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ92" s="39" t="s">
+      <c r="AJ92" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AK92" s="39" t="s">
+      <c r="AK92" s="8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="93" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z93" s="39" t="s">
+      <c r="Z93" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AA93" s="39" t="s">
+      <c r="AA93" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AB93" s="39" t="s">
+      <c r="AB93" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AC93" s="39" t="s">
+      <c r="AC93" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AD93" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE93" s="39" t="s">
+      <c r="AD93" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE93" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AF93" s="39" t="s">
+      <c r="AF93" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AG93" s="39" t="s">
+      <c r="AG93" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AH93" s="39" t="s">
+      <c r="AH93" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI93" s="39">
+      <c r="AI93" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ93" s="39"/>
-      <c r="AK93" s="39"/>
+      <c r="AJ93" s="8"/>
+      <c r="AK93" s="8"/>
     </row>
     <row r="94" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z94" s="39" t="s">
+      <c r="Z94" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="AA94" s="39">
+      <c r="AA94" s="8">
         <v>800</v>
       </c>
-      <c r="AB94" s="39" t="s">
+      <c r="AB94" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AC94" s="39">
+      <c r="AC94" s="8">
         <v>800</v>
       </c>
-      <c r="AD94" s="39" t="s">
+      <c r="AD94" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="AE94" s="39" t="s">
+      <c r="AE94" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AF94" s="39">
+      <c r="AF94" s="8">
         <v>0</v>
       </c>
-      <c r="AG94" s="39" t="s">
+      <c r="AG94" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AH94" s="39" t="s">
+      <c r="AH94" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AI94" s="39">
+      <c r="AI94" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ94" s="39"/>
-      <c r="AK94" s="39"/>
+      <c r="AJ94" s="8"/>
+      <c r="AK94" s="8"/>
     </row>
     <row r="95" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z95" s="39" t="s">
+      <c r="Z95" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA95" s="39">
+      <c r="AA95" s="8">
         <v>740</v>
       </c>
-      <c r="AB95" s="39">
+      <c r="AB95" s="8">
         <v>520</v>
       </c>
-      <c r="AC95" s="39">
+      <c r="AC95" s="8">
         <v>740</v>
       </c>
-      <c r="AD95" s="39" t="s">
+      <c r="AD95" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AE95" s="39">
+      <c r="AE95" s="8">
         <v>740</v>
       </c>
-      <c r="AF95" s="39">
+      <c r="AF95" s="8">
         <v>0</v>
       </c>
-      <c r="AG95" s="39" t="s">
+      <c r="AG95" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="AH95" s="39" t="s">
+      <c r="AH95" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AI95" s="39">
+      <c r="AI95" s="8">
         <v>1001</v>
       </c>
-      <c r="AJ95" s="39"/>
-      <c r="AK95" s="39"/>
+      <c r="AJ95" s="8"/>
+      <c r="AK95" s="8"/>
     </row>
     <row r="96" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="Z96" s="39">
+      <c r="Z96" s="8">
         <v>520</v>
       </c>
-      <c r="AA96" s="40" t="s">
+      <c r="AA96" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AB96" s="39">
+      <c r="AB96" s="8">
         <v>521</v>
       </c>
-      <c r="AC96" s="40" t="s">
+      <c r="AC96" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="AD96" s="39">
+      <c r="AD96" s="8">
         <v>526</v>
       </c>
-      <c r="AE96" s="39" t="s">
+      <c r="AE96" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AF96" s="39">
+      <c r="AF96" s="8">
         <v>0</v>
       </c>
-      <c r="AG96" s="39">
+      <c r="AG96" s="8">
         <v>5</v>
       </c>
-      <c r="AH96" s="39" t="s">
+      <c r="AH96" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AI96" s="39">
+      <c r="AI96" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ96" s="39"/>
-      <c r="AK96" s="39"/>
-    </row>
-    <row r="97" spans="26:37" x14ac:dyDescent="0.3">
-      <c r="Z97" s="39">
+      <c r="AJ96" s="8"/>
+      <c r="AK96" s="8"/>
+    </row>
+    <row r="97" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="Z97" s="8">
         <v>521</v>
       </c>
-      <c r="AA97" s="39" t="s">
+      <c r="AA97" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AB97" s="39">
+      <c r="AB97" s="8">
         <v>522</v>
       </c>
-      <c r="AC97" s="39" t="s">
+      <c r="AC97" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AD97" s="39">
+      <c r="AD97" s="8">
         <v>526</v>
       </c>
-      <c r="AE97" s="39" t="s">
+      <c r="AE97" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AF97" s="39">
+      <c r="AF97" s="8">
         <v>0</v>
       </c>
-      <c r="AG97" s="39">
+      <c r="AG97" s="8">
         <v>4</v>
       </c>
-      <c r="AH97" s="39" t="s">
+      <c r="AH97" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AI97" s="39">
+      <c r="AI97" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ97" s="39">
+      <c r="AJ97" s="8">
         <v>526</v>
       </c>
-      <c r="AK97" s="39" t="s">
+      <c r="AK97" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="26:37" x14ac:dyDescent="0.3">
-      <c r="Z98" s="39">
+    <row r="98" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="Z98" s="8">
         <v>522</v>
       </c>
-      <c r="AA98" s="40" t="s">
+      <c r="AA98" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AB98" s="39">
+      <c r="AB98" s="8">
         <v>523</v>
       </c>
-      <c r="AC98" s="39">
+      <c r="AC98" s="8">
         <v>100</v>
       </c>
-      <c r="AD98" s="39">
+      <c r="AD98" s="8">
         <v>522</v>
       </c>
-      <c r="AE98" s="39">
+      <c r="AE98" s="8">
         <v>100</v>
       </c>
-      <c r="AF98" s="39">
+      <c r="AF98" s="8">
         <v>0</v>
       </c>
-      <c r="AG98" s="39">
+      <c r="AG98" s="8">
         <v>522</v>
       </c>
-      <c r="AH98" s="39" t="s">
+      <c r="AH98" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="AI98" s="39">
+      <c r="AI98" s="8">
         <v>1000</v>
       </c>
-      <c r="AJ98" s="39"/>
-      <c r="AK98" s="39"/>
+      <c r="AJ98" s="8"/>
+      <c r="AK98" s="8"/>
+    </row>
+    <row r="100" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D101" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D102" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D103" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D104" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D105" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="106" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D106" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D107" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D108" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D109" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D110" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D111" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="3:37" x14ac:dyDescent="0.3">
+      <c r="D112" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>182</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D114" s="16"/>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D115" s="16"/>
+    </row>
+    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D117" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D118" s="16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C119">
+        <v>444</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D120" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D121" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D122" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D123" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D125" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D127" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D133" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D134" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D135" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D136" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D137" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D138" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D139" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D140" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D141" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D142" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D143" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D144" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D145" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D146" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D147" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="E39:E46"/>
+    <mergeCell ref="E47:E54"/>
+    <mergeCell ref="E55:E61"/>
+    <mergeCell ref="E71:E75"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F69:F73"/>
+    <mergeCell ref="F47:F54"/>
+    <mergeCell ref="F55:F61"/>
     <mergeCell ref="F39:F46"/>
     <mergeCell ref="Z17:AA17"/>
     <mergeCell ref="AJ17:AK17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:U17"/>
     <mergeCell ref="V17:W17"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F69:F73"/>
-    <mergeCell ref="F47:F54"/>
-    <mergeCell ref="F55:F61"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="E39:E46"/>
-    <mergeCell ref="E47:E54"/>
-    <mergeCell ref="E55:E61"/>
-    <mergeCell ref="E71:E75"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
